--- a/biology/Zoologie/Crichtonsaurus/Crichtonsaurus.xlsx
+++ b/biology/Zoologie/Crichtonsaurus/Crichtonsaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Crichtonsaurus est un genre de dinosaures ankylosaures du Crétacé supérieur retrouvé au Liaoning, en Chine. L'espèce type, Crichtonsaurus bohlini, a été décrite formellement par Zhiming Dong en 2002. 
 </t>
@@ -511,10 +523,12 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une deuxième espèce, Crichtonsaurus benxiensis ou Chrichtonpelta, a été nommée par Lü Junchang  et al. en 2007 à partir de restes retrouvés dans la formation de Sunjiawan (en) à Beipiao[1],[2]. Cette seconde espèce a été nommé, par Victoria Arbour en 2014, comme Crichtonpelta benxiensis et validée par Philip John Currie, en 2015[3].
-Le nom générique a été donné en l'honneur de Michael Crichton célèbre auteur des romans "Jurassic Park" par des scientifiques de l'Institut de paléontologie des vertébrés et de paléoanthropologie. Le nom spécifique de l'espèce type a été donné en l'honneur de Birger Bohlin (en), un paléontologue suédois faisant partie de l'équipe ayant travaillé sur l'homme de Pékin[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une deuxième espèce, Crichtonsaurus benxiensis ou Chrichtonpelta, a été nommée par Lü Junchang  et al. en 2007 à partir de restes retrouvés dans la formation de Sunjiawan (en) à Beipiao,. Cette seconde espèce a été nommé, par Victoria Arbour en 2014, comme Crichtonpelta benxiensis et validée par Philip John Currie, en 2015.
+Le nom générique a été donné en l'honneur de Michael Crichton célèbre auteur des romans "Jurassic Park" par des scientifiques de l'Institut de paléontologie des vertébrés et de paléoanthropologie. Le nom spécifique de l'espèce type a été donné en l'honneur de Birger Bohlin (en), un paléontologue suédois faisant partie de l'équipe ayant travaillé sur l'homme de Pékin.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Cladogramme Ankylosauridae</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cladogramme de la famille Ankylosauridae résulte d'une analyse menée en 2011 par les paléontologues Richard S. Thompson, Jolyon C. Parish, Susannah CR Maidment et Paul M. Barrett[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cladogramme de la famille Ankylosauridae résulte d'une analyse menée en 2011 par les paléontologues Richard S. Thompson, Jolyon C. Parish, Susannah CR Maidment et Paul M. Barrett.
 </t>
         </is>
       </c>
